--- a/debtor_list.xlsx
+++ b/debtor_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\fssp_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7E1A6-B04F-4EB8-AF43-C9A253107265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="2736" windowWidth="28800" windowHeight="11508"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Дата рождения</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Навальный</t>
   </si>
@@ -50,13 +37,28 @@
   </si>
   <si>
     <t>Эдуардовна</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>secondname</t>
+  </si>
+  <si>
+    <t>birthdate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +68,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3B4151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,15 +128,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,313 +444,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:88" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3">
+        <v>15</v>
+      </c>
+      <c r="U1" s="3">
+        <v>16</v>
+      </c>
+      <c r="V1" s="3">
+        <v>17</v>
+      </c>
+      <c r="W1" s="3">
+        <v>18</v>
+      </c>
+      <c r="X1" s="3">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="3">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="3">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="3">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="3">
+        <v>46</v>
+      </c>
+      <c r="AZ1" s="3">
+        <v>47</v>
+      </c>
+      <c r="BA1" s="3">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="3">
+        <v>49</v>
+      </c>
+      <c r="BC1" s="3">
+        <v>50</v>
+      </c>
+      <c r="BD1" s="3">
+        <v>51</v>
+      </c>
+      <c r="BE1" s="3">
+        <v>52</v>
+      </c>
+      <c r="BF1" s="3">
+        <v>53</v>
+      </c>
+      <c r="BG1" s="3">
+        <v>54</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>55</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>56</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>57</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>58</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>59</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>60</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>61</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>62</v>
+      </c>
+      <c r="BP1" s="3">
+        <v>63</v>
+      </c>
+      <c r="BQ1" s="3">
+        <v>64</v>
+      </c>
+      <c r="BR1" s="3">
+        <v>65</v>
+      </c>
+      <c r="BS1" s="3">
+        <v>66</v>
+      </c>
+      <c r="BT1" s="3">
+        <v>67</v>
+      </c>
+      <c r="BU1" s="3">
+        <v>68</v>
+      </c>
+      <c r="BV1" s="3">
+        <v>69</v>
+      </c>
+      <c r="BW1" s="3">
+        <v>70</v>
+      </c>
+      <c r="BX1" s="3">
+        <v>71</v>
+      </c>
+      <c r="BY1" s="3">
+        <v>72</v>
+      </c>
+      <c r="BZ1" s="3">
+        <v>73</v>
+      </c>
+      <c r="CA1" s="3">
+        <v>74</v>
+      </c>
+      <c r="CB1" s="3">
+        <v>75</v>
+      </c>
+      <c r="CC1" s="3">
+        <v>76</v>
+      </c>
+      <c r="CD1" s="3">
+        <v>77</v>
+      </c>
+      <c r="CE1" s="3">
+        <v>78</v>
+      </c>
+      <c r="CF1" s="3">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="3">
+        <v>86</v>
+      </c>
+      <c r="CH1" s="3">
+        <v>87</v>
+      </c>
+      <c r="CI1" s="3">
+        <v>89</v>
+      </c>
+      <c r="CJ1" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1">
+        <v>27915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="I1">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="J1">
-        <v>6</v>
-      </c>
-      <c r="K1">
-        <v>7</v>
-      </c>
-      <c r="L1">
-        <v>8</v>
-      </c>
-      <c r="M1">
-        <v>9</v>
-      </c>
-      <c r="N1">
-        <v>10</v>
-      </c>
-      <c r="O1">
-        <v>11</v>
-      </c>
-      <c r="P1">
-        <v>12</v>
-      </c>
-      <c r="Q1">
-        <v>13</v>
-      </c>
-      <c r="R1">
-        <v>14</v>
-      </c>
-      <c r="S1">
-        <v>15</v>
-      </c>
-      <c r="T1">
-        <v>16</v>
-      </c>
-      <c r="U1">
-        <v>17</v>
-      </c>
-      <c r="V1">
-        <v>18</v>
-      </c>
-      <c r="W1">
-        <v>19</v>
-      </c>
-      <c r="X1">
-        <v>20</v>
-      </c>
-      <c r="Y1">
-        <v>21</v>
-      </c>
-      <c r="Z1">
-        <v>22</v>
-      </c>
-      <c r="AA1">
-        <v>23</v>
-      </c>
-      <c r="AB1">
-        <v>24</v>
-      </c>
-      <c r="AC1">
-        <v>25</v>
-      </c>
-      <c r="AD1">
-        <v>26</v>
-      </c>
-      <c r="AE1">
-        <v>27</v>
-      </c>
-      <c r="AF1">
-        <v>28</v>
-      </c>
-      <c r="AG1">
-        <v>29</v>
-      </c>
-      <c r="AH1">
-        <v>30</v>
-      </c>
-      <c r="AI1">
-        <v>31</v>
-      </c>
-      <c r="AJ1">
-        <v>32</v>
-      </c>
-      <c r="AK1">
-        <v>33</v>
-      </c>
-      <c r="AL1">
-        <v>34</v>
-      </c>
-      <c r="AM1">
-        <v>35</v>
-      </c>
-      <c r="AN1">
-        <v>36</v>
-      </c>
-      <c r="AO1">
-        <v>37</v>
-      </c>
-      <c r="AP1">
-        <v>38</v>
-      </c>
-      <c r="AQ1">
-        <v>39</v>
-      </c>
-      <c r="AR1">
-        <v>40</v>
-      </c>
-      <c r="AS1">
-        <v>41</v>
-      </c>
-      <c r="AT1">
-        <v>42</v>
-      </c>
-      <c r="AU1">
-        <v>43</v>
-      </c>
-      <c r="AV1">
-        <v>44</v>
-      </c>
-      <c r="AW1">
-        <v>45</v>
-      </c>
-      <c r="AX1">
-        <v>46</v>
-      </c>
-      <c r="AY1">
-        <v>47</v>
-      </c>
-      <c r="AZ1">
-        <v>48</v>
-      </c>
-      <c r="BA1">
-        <v>49</v>
-      </c>
-      <c r="BB1">
-        <v>50</v>
-      </c>
-      <c r="BC1">
-        <v>51</v>
-      </c>
-      <c r="BD1">
-        <v>52</v>
-      </c>
-      <c r="BE1">
-        <v>53</v>
-      </c>
-      <c r="BF1">
-        <v>54</v>
-      </c>
-      <c r="BG1">
-        <v>55</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>56</v>
-      </c>
-      <c r="BI1">
-        <v>57</v>
-      </c>
-      <c r="BJ1">
-        <v>58</v>
-      </c>
-      <c r="BK1">
-        <v>59</v>
-      </c>
-      <c r="BL1">
-        <v>60</v>
-      </c>
-      <c r="BM1">
-        <v>61</v>
-      </c>
-      <c r="BN1">
-        <v>62</v>
-      </c>
-      <c r="BO1">
-        <v>63</v>
-      </c>
-      <c r="BP1">
-        <v>64</v>
-      </c>
-      <c r="BQ1">
-        <v>65</v>
-      </c>
-      <c r="BR1">
-        <v>66</v>
-      </c>
-      <c r="BS1">
-        <v>67</v>
-      </c>
-      <c r="BT1">
-        <v>68</v>
-      </c>
-      <c r="BU1">
-        <v>69</v>
-      </c>
-      <c r="BV1">
-        <v>70</v>
-      </c>
-      <c r="BW1">
-        <v>71</v>
-      </c>
-      <c r="BX1">
-        <v>72</v>
-      </c>
-      <c r="BY1">
-        <v>73</v>
-      </c>
-      <c r="BZ1">
-        <v>74</v>
-      </c>
-      <c r="CA1">
-        <v>75</v>
-      </c>
-      <c r="CB1">
-        <v>76</v>
-      </c>
-      <c r="CC1">
-        <v>77</v>
-      </c>
-      <c r="CD1">
-        <v>78</v>
-      </c>
-      <c r="CE1">
-        <v>82</v>
-      </c>
-      <c r="CF1">
-        <v>86</v>
-      </c>
-      <c r="CG1">
-        <v>87</v>
-      </c>
-      <c r="CH1">
-        <v>89</v>
-      </c>
-      <c r="CI1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>27915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="E3" s="1">
         <v>32033</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>